--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gpc3-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gpc3-Igf1r.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.658923</v>
+        <v>0.8419516666666667</v>
       </c>
       <c r="H2">
-        <v>7.976769</v>
+        <v>2.525855</v>
       </c>
       <c r="I2">
-        <v>0.01800502032966059</v>
+        <v>0.005772335854373203</v>
       </c>
       <c r="J2">
-        <v>0.01800502032966059</v>
+        <v>0.005772335854373203</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.519512</v>
+        <v>14.129345</v>
       </c>
       <c r="N2">
-        <v>73.558536</v>
+        <v>42.388035</v>
       </c>
       <c r="O2">
-        <v>0.4736537296697991</v>
+        <v>0.3414817166893976</v>
       </c>
       <c r="P2">
-        <v>0.4736537296697991</v>
+        <v>0.3414817166893976</v>
       </c>
       <c r="Q2">
-        <v>65.19549440557601</v>
+        <v>11.89622557165833</v>
       </c>
       <c r="R2">
-        <v>586.759449650184</v>
+        <v>107.066030144925</v>
       </c>
       <c r="S2">
-        <v>0.008528145031924294</v>
+        <v>0.001971147156859122</v>
       </c>
       <c r="T2">
-        <v>0.008528145031924294</v>
+        <v>0.001971147156859122</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.658923</v>
+        <v>0.8419516666666667</v>
       </c>
       <c r="H3">
-        <v>7.976769</v>
+        <v>2.525855</v>
       </c>
       <c r="I3">
-        <v>0.01800502032966059</v>
+        <v>0.005772335854373203</v>
       </c>
       <c r="J3">
-        <v>0.01800502032966059</v>
+        <v>0.005772335854373203</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>44.109859</v>
       </c>
       <c r="O3">
-        <v>0.284029568377475</v>
+        <v>0.3553528814026711</v>
       </c>
       <c r="P3">
-        <v>0.284029568377475</v>
+        <v>0.3553528814026711</v>
       </c>
       <c r="Q3">
-        <v>39.09490620728567</v>
+        <v>12.37945643382722</v>
       </c>
       <c r="R3">
-        <v>351.854155865571</v>
+        <v>111.415107904445</v>
       </c>
       <c r="S3">
-        <v>0.00511395815286116</v>
+        <v>0.002051216178275467</v>
       </c>
       <c r="T3">
-        <v>0.00511395815286116</v>
+        <v>0.002051216178275467</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.658923</v>
+        <v>0.8419516666666667</v>
       </c>
       <c r="H4">
-        <v>7.976769</v>
+        <v>2.525855</v>
       </c>
       <c r="I4">
-        <v>0.01800502032966059</v>
+        <v>0.005772335854373203</v>
       </c>
       <c r="J4">
-        <v>0.01800502032966059</v>
+        <v>0.005772335854373203</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>37.631841</v>
       </c>
       <c r="O4">
-        <v>0.2423167019527259</v>
+        <v>0.3031654019079313</v>
       </c>
       <c r="P4">
-        <v>0.2423167019527259</v>
+        <v>0.3031654019079312</v>
       </c>
       <c r="Q4">
-        <v>33.35338918908101</v>
+        <v>10.56139708322833</v>
       </c>
       <c r="R4">
-        <v>300.180502701729</v>
+        <v>95.052573749055</v>
       </c>
       <c r="S4">
-        <v>0.004362917144875136</v>
+        <v>0.001749972519238614</v>
       </c>
       <c r="T4">
-        <v>0.004362917144875136</v>
+        <v>0.001749972519238614</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>368.049622</v>
       </c>
       <c r="I5">
-        <v>0.8307550245511554</v>
+        <v>0.8411037170617888</v>
       </c>
       <c r="J5">
-        <v>0.8307550245511555</v>
+        <v>0.8411037170617888</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.519512</v>
+        <v>14.129345</v>
       </c>
       <c r="N5">
-        <v>73.558536</v>
+        <v>42.388035</v>
       </c>
       <c r="O5">
-        <v>0.4736537296697991</v>
+        <v>0.3414817166893976</v>
       </c>
       <c r="P5">
-        <v>0.4736537296697991</v>
+        <v>0.3414817166893976</v>
       </c>
       <c r="Q5">
-        <v>3008.132374408155</v>
+        <v>1733.433362119197</v>
       </c>
       <c r="R5">
-        <v>27073.19136967339</v>
+        <v>15600.90025907277</v>
       </c>
       <c r="S5">
-        <v>0.3934902158205802</v>
+        <v>0.287221541216093</v>
       </c>
       <c r="T5">
-        <v>0.3934902158205803</v>
+        <v>0.287221541216093</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>368.049622</v>
       </c>
       <c r="I6">
-        <v>0.8307550245511554</v>
+        <v>0.8411037170617888</v>
       </c>
       <c r="J6">
-        <v>0.8307550245511555</v>
+        <v>0.8411037170617888</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>44.109859</v>
       </c>
       <c r="O6">
-        <v>0.284029568377475</v>
+        <v>0.3553528814026711</v>
       </c>
       <c r="P6">
-        <v>0.284029568377475</v>
+        <v>0.3553528814026711</v>
       </c>
       <c r="Q6">
         <v>1803.8463257137</v>
@@ -818,10 +818,10 @@
         <v>16234.6169314233</v>
       </c>
       <c r="S6">
-        <v>0.2359589910506833</v>
+        <v>0.2988886294164037</v>
       </c>
       <c r="T6">
-        <v>0.2359589910506833</v>
+        <v>0.2988886294164037</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>368.049622</v>
       </c>
       <c r="I7">
-        <v>0.8307550245511554</v>
+        <v>0.8411037170617888</v>
       </c>
       <c r="J7">
-        <v>0.8307550245511555</v>
+        <v>0.8411037170617888</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>37.631841</v>
       </c>
       <c r="O7">
-        <v>0.2423167019527259</v>
+        <v>0.3031654019079313</v>
       </c>
       <c r="P7">
-        <v>0.2423167019527259</v>
+        <v>0.3031654019079312</v>
       </c>
       <c r="Q7">
         <v>1538.931650579345</v>
@@ -880,10 +880,10 @@
         <v>13850.3848552141</v>
       </c>
       <c r="S7">
-        <v>0.2013058176798918</v>
+        <v>0.2549935464292921</v>
       </c>
       <c r="T7">
-        <v>0.2013058176798918</v>
+        <v>0.2549935464292921</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>67.003878</v>
       </c>
       <c r="I8">
-        <v>0.1512399551191839</v>
+        <v>0.1531239470838381</v>
       </c>
       <c r="J8">
-        <v>0.151239955119184</v>
+        <v>0.1531239470838381</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>24.519512</v>
+        <v>14.129345</v>
       </c>
       <c r="N8">
-        <v>73.558536</v>
+        <v>42.388035</v>
       </c>
       <c r="O8">
-        <v>0.4736537296697991</v>
+        <v>0.3414817166893976</v>
       </c>
       <c r="P8">
-        <v>0.4736537296697991</v>
+        <v>0.3414817166893976</v>
       </c>
       <c r="Q8">
-        <v>547.6341302225121</v>
+        <v>315.57363619997</v>
       </c>
       <c r="R8">
-        <v>4928.707172002608</v>
+        <v>2840.16272579973</v>
       </c>
       <c r="S8">
-        <v>0.0716353688172945</v>
+        <v>0.0522890283164455</v>
       </c>
       <c r="T8">
-        <v>0.07163536881729451</v>
+        <v>0.0522890283164455</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>67.003878</v>
       </c>
       <c r="I9">
-        <v>0.1512399551191839</v>
+        <v>0.1531239470838381</v>
       </c>
       <c r="J9">
-        <v>0.151239955119184</v>
+        <v>0.1531239470838381</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>44.109859</v>
       </c>
       <c r="O9">
-        <v>0.284029568377475</v>
+        <v>0.3553528814026711</v>
       </c>
       <c r="P9">
-        <v>0.284029568377475</v>
+        <v>0.3553528814026711</v>
       </c>
       <c r="Q9">
         <v>328.3924012259113</v>
@@ -1004,10 +1004,10 @@
         <v>2955.531611033202</v>
       </c>
       <c r="S9">
-        <v>0.0429566191739305</v>
+        <v>0.05441303580799201</v>
       </c>
       <c r="T9">
-        <v>0.04295661917393051</v>
+        <v>0.05441303580799201</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>67.003878</v>
       </c>
       <c r="I10">
-        <v>0.1512399551191839</v>
+        <v>0.1531239470838381</v>
       </c>
       <c r="J10">
-        <v>0.151239955119184</v>
+        <v>0.1531239470838381</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>37.631841</v>
       </c>
       <c r="O10">
-        <v>0.2423167019527259</v>
+        <v>0.3031654019079313</v>
       </c>
       <c r="P10">
-        <v>0.2423167019527259</v>
+        <v>0.3031654019079312</v>
       </c>
       <c r="Q10">
         <v>280.164364808822</v>
@@ -1066,10 +1066,10 @@
         <v>2521.479283279398</v>
       </c>
       <c r="S10">
-        <v>0.03664796712795895</v>
+        <v>0.04642188295940058</v>
       </c>
       <c r="T10">
-        <v>0.03664796712795895</v>
+        <v>0.04642188295940057</v>
       </c>
     </row>
   </sheetData>
